--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC1A4D3-B8BD-4649-AE52-8D274BBA6A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158BF4F-BC19-4C23-9F4F-B4B6AA0C804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1648,7 +1648,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -2076,7 +2076,7 @@
         <v>80</v>
       </c>
       <c r="Q10" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883B198E-C82E-4132-9A8F-53FA34033E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC1A4D3-B8BD-4649-AE52-8D274BBA6A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$I$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,8 +354,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁铁锭-&gt;磁铁工具/武器/防具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>磁铁工具/武器/防具</t>
   </si>
   <si>
     <t>附魔效果</t>
@@ -399,6 +398,10 @@
   </si>
   <si>
     <t>磁铁模版 + 红石 * 2 + 铁锭||电磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁锭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1358,8 +1361,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="G20:H30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="2" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="G20:H30" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="P1:Q12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="2" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="P1:Q12" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99F9146C-A319-4122-823E-EC22537F1C6F}" name="待完成功能" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{79A85F05-3665-46C8-B21C-C055B099F92F}" name="完成度" dataDxfId="3"/>
@@ -1369,8 +1372,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F4407A82-488E-4D41-926C-3E913DD68C65}" name="表13" displayName="表13" ref="C21:E27" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="C21:E27" xr:uid="{F4407A82-488E-4D41-926C-3E913DD68C65}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F4407A82-488E-4D41-926C-3E913DD68C65}" name="表13" displayName="表13" ref="L2:N8" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7839FC25-4B13-46E3-8683-07BECDA37F8F}" name="主手" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{ACB552EA-BA50-4017-AA46-0C4CA7E0A45D}" name="副手" dataDxfId="10"/>
@@ -1643,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1660,12 +1662,16 @@
     <col min="7" max="7" width="48" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="82.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
@@ -1676,9 +1682,21 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="J1" s="3"/>
+      <c r="J1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="P1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -1701,8 +1719,25 @@
       <c r="H2" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -1724,9 +1759,29 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="7">
+        <v>25</v>
+      </c>
+      <c r="M3" s="4">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8">
+        <v>30</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
         <v>14</v>
@@ -1746,9 +1801,27 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>25</v>
@@ -1768,9 +1841,29 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="7">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4">
+        <v>10</v>
+      </c>
+      <c r="N5" s="8">
+        <v>20</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -1794,8 +1887,27 @@
       <c r="H6" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="7">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4">
+        <v>15</v>
+      </c>
+      <c r="N6" s="8">
+        <v>20</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
@@ -1819,8 +1931,29 @@
       <c r="H7" s="15" t="s">
         <v>87</v>
       </c>
+      <c r="J7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4">
+        <v>30</v>
+      </c>
+      <c r="N7" s="8">
+        <v>40</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>29</v>
@@ -1844,8 +1977,27 @@
       <c r="H8" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="12">
+        <v>30</v>
+      </c>
+      <c r="M8" s="13">
+        <v>25</v>
+      </c>
+      <c r="N8" s="14">
+        <v>30</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -1869,8 +2021,25 @@
       <c r="H9" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="J9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="P9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
@@ -1894,8 +2063,23 @@
         <v>26</v>
       </c>
       <c r="H10" s="5"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="18">
+        <v>15</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="P10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="5" t="s">
         <v>32</v>
@@ -1917,8 +2101,14 @@
         <v>26</v>
       </c>
       <c r="H11" s="5"/>
+      <c r="P11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -1938,8 +2128,12 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
+      <c r="P12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="23"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1960,7 +2154,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +2177,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="5" t="s">
         <v>36</v>
@@ -2006,7 +2200,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -2075,226 +2269,16 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="G20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="7">
-        <v>25</v>
-      </c>
-      <c r="D22" s="4">
-        <v>20</v>
-      </c>
-      <c r="E22" s="8">
-        <v>30</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="7">
-        <v>15</v>
-      </c>
-      <c r="D24" s="4">
-        <v>10</v>
-      </c>
-      <c r="E24" s="8">
-        <v>20</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="7">
-        <v>20</v>
-      </c>
-      <c r="D25" s="4">
-        <v>15</v>
-      </c>
-      <c r="E25" s="8">
-        <v>20</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="7">
-        <v>35</v>
-      </c>
-      <c r="D26" s="4">
-        <v>30</v>
-      </c>
-      <c r="E26" s="8">
-        <v>40</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="12">
-        <v>30</v>
-      </c>
-      <c r="D27" s="13">
-        <v>25</v>
-      </c>
-      <c r="E27" s="14">
-        <v>30</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="G28" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="18">
-        <v>15</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="G29" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G30" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="23">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J1:N1"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E03A441-C492-41F1-8DE6-F6E5BDBDD076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB4E00-91BF-4143-AF1F-E7E2CA518698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,10 @@
   </si>
   <si>
     <t>三叉戟的吸引效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁防具套装效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,10 +995,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B19" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
-    <sortCondition descending="1" ref="B1:B19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B20" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
+    <sortCondition descending="1" ref="B1:B20"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99F9146C-A319-4122-823E-EC22537F1C6F}" name="功能" dataDxfId="1"/>
@@ -1936,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1998,39 +2002,39 @@
     </row>
     <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B7" s="12">
-        <v>0.66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B8" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B9" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="12">
         <v>0</v>
@@ -2038,7 +2042,7 @@
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="12">
         <v>0</v>
@@ -2046,7 +2050,7 @@
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="12">
         <v>0</v>
@@ -2054,7 +2058,7 @@
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="12">
         <v>0</v>
@@ -2062,7 +2066,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -2070,7 +2074,7 @@
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
@@ -2078,7 +2082,7 @@
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="12">
         <v>0</v>
@@ -2086,7 +2090,7 @@
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="12">
         <v>0</v>
@@ -2094,9 +2098,17 @@
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B20" s="12">
         <v>0</v>
       </c>
     </row>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AB4E00-91BF-4143-AF1F-E7E2CA518698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147BC37-3E10-4CE0-97EF-316C12B04458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +255,6 @@
   </si>
   <si>
     <t>按键信息传输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包磁铁小范围吸引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -995,10 +991,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B20" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
-    <sortCondition descending="1" ref="B1:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B19" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
+    <sortCondition descending="1" ref="B1:B19"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99F9146C-A319-4122-823E-EC22537F1C6F}" name="功能" dataDxfId="1"/>
@@ -1296,10 +1292,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>32</v>
@@ -1314,31 +1310,31 @@
         <v>7</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1356,7 +1352,7 @@
         <v>super_magnet:raw_magnet</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>12</v>
@@ -1389,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
@@ -1398,23 +1394,23 @@
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="9" t="str">
         <f>_xlfn.CONCAT("super_magnet:",C4)</f>
         <v>super_magnet:magnetic_iron_ingot</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
@@ -1423,23 +1419,23 @@
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>_xlfn.CONCAT("super_magnet:",C5)</f>
         <v>super_magnet:magnet_powder</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
@@ -1461,10 +1457,10 @@
         <v>super_magnet:magnet_template</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
@@ -1491,10 +1487,10 @@
         <v>super_magnet:polar_magnet</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>28</v>
@@ -1535,19 +1531,19 @@
         <v>super_magnet:electromagnet</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="4">
@@ -1584,14 +1580,14 @@
         <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="4">
@@ -1625,17 +1621,17 @@
         <v>super_magnet:magnet_controller</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
         <v>100</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="4"/>
@@ -1726,7 +1722,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="7"/>
@@ -1753,10 +1749,10 @@
         <v>super_magnet:raw_magnet_block</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="7"/>
@@ -1815,7 +1811,7 @@
         <v>super_magnet:degaussing</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>23</v>
@@ -1849,7 +1845,7 @@
         <v>super_magnet:attract</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>26</v>
@@ -1866,7 +1862,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>3</v>
@@ -1909,18 +1905,18 @@
         <v>super_magnet:attract</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
       <c r="J19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1940,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1957,12 +1953,12 @@
         <v>30</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -1970,7 +1966,7 @@
     </row>
     <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -1978,7 +1974,7 @@
     </row>
     <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -1986,7 +1982,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -1994,7 +1990,7 @@
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -2002,7 +1998,7 @@
     </row>
     <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -2018,7 +2014,7 @@
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -2066,7 +2062,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -2101,14 +2097,6 @@
         <v>100</v>
       </c>
       <c r="B19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="12">
         <v>0</v>
       </c>
     </row>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147BC37-3E10-4CE0-97EF-316C12B04458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40597E92-0B15-41CC-8720-89E216E0CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="23040" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品介绍" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,22 @@
   </si>
   <si>
     <t>磁铁防具套装效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人游戏兼容性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,10 +1007,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B19" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B19">
-    <sortCondition descending="1" ref="B1:B19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B22" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition descending="1" ref="B1:B22"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99F9146C-A319-4122-823E-EC22537F1C6F}" name="功能" dataDxfId="1"/>
@@ -1274,7 +1290,7 @@
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="2" bestFit="1" customWidth="1"/>
@@ -1936,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1982,7 +1998,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -2022,39 +2038,39 @@
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" s="12">
         <v>0</v>
@@ -2062,7 +2078,7 @@
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -2070,7 +2086,7 @@
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
@@ -2078,7 +2094,7 @@
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="12">
         <v>0</v>
@@ -2086,7 +2102,7 @@
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="12">
         <v>0</v>
@@ -2094,9 +2110,33 @@
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="12">
         <v>0</v>
       </c>
     </row>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40597E92-0B15-41CC-8720-89E216E0CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED71154-F283-4192-A8DB-1065FBD910E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="23040" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,10 @@
   </si>
   <si>
     <t>多人游戏兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决吸引冲突</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,8 +1011,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B22" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B23" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
     <sortCondition descending="1" ref="B1:B22"/>
   </sortState>
@@ -1952,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2140,6 +2144,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED71154-F283-4192-A8DB-1065FBD910E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5844D423-AF76-42A1-992E-0CE0437192BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="23040" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品介绍" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,18 @@
   </si>
   <si>
     <t>解决吸引冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复无法吸引的实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复实体吸引效果物品闪现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,10 +1023,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B23" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
-    <sortCondition descending="1" ref="B1:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B26" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+    <sortCondition descending="1" ref="B1:B25"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99F9146C-A319-4122-823E-EC22537F1C6F}" name="功能" dataDxfId="1"/>
@@ -1956,15 +1968,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2066,39 +2078,39 @@
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B13" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B15" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B16" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B17" s="12">
         <v>0</v>
@@ -2106,7 +2118,7 @@
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B18" s="12">
         <v>0</v>
@@ -2114,7 +2126,7 @@
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" s="12">
         <v>0</v>
@@ -2122,7 +2134,7 @@
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="12">
         <v>0</v>
@@ -2130,7 +2142,7 @@
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B21" s="12">
         <v>0</v>
@@ -2138,7 +2150,7 @@
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B22" s="12">
         <v>0</v>
@@ -2146,9 +2158,33 @@
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="12">
         <v>0</v>
       </c>
     </row>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5844D423-AF76-42A1-992E-0CE0437192BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB75B45-8CCB-4E28-A3CB-7F1896EB8537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超级磁铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20 + 效果等级 * 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,18 +420,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁铁盾牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>磁铁马铠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁铁弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吸引之箭的吸引效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,6 +465,18 @@
   </si>
   <si>
     <t>修复实体吸引效果物品闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁矿车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁传送按键绑定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,8 +1024,16 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B26" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+  <autoFilter ref="A1:B26" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0%"/>
+        <filter val="50%"/>
+        <filter val="80%"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:B25">
     <sortCondition descending="1" ref="B1:B25"/>
   </sortState>
   <tableColumns count="2">
@@ -1324,10 +1332,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>32</v>
@@ -1342,31 +1350,31 @@
         <v>7</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1384,7 +1392,7 @@
         <v>super_magnet:raw_magnet</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>12</v>
@@ -1417,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
@@ -1426,23 +1434,23 @@
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="9" t="str">
         <f>_xlfn.CONCAT("super_magnet:",C4)</f>
         <v>super_magnet:magnetic_iron_ingot</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
@@ -1451,23 +1459,23 @@
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>_xlfn.CONCAT("super_magnet:",C5)</f>
         <v>super_magnet:magnet_powder</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="7"/>
@@ -1489,10 +1497,10 @@
         <v>super_magnet:magnet_template</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
@@ -1519,10 +1527,10 @@
         <v>super_magnet:polar_magnet</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>28</v>
@@ -1563,19 +1571,19 @@
         <v>super_magnet:electromagnet</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="4">
@@ -1612,14 +1620,14 @@
         <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="4">
@@ -1653,17 +1661,17 @@
         <v>super_magnet:magnet_controller</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
         <v>100</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="4"/>
@@ -1754,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="7"/>
@@ -1781,10 +1789,10 @@
         <v>super_magnet:raw_magnet_block</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="7"/>
@@ -1820,7 +1828,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
       <c r="J15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1843,7 +1851,7 @@
         <v>super_magnet:degaussing</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>23</v>
@@ -1877,7 +1885,7 @@
         <v>super_magnet:attract</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>26</v>
@@ -1894,7 +1902,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>3</v>
@@ -1937,18 +1945,18 @@
         <v>super_magnet:attract</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
       <c r="J19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1970,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1985,172 +1993,172 @@
         <v>30</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B15" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B16" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="B17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B19" s="12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B20" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B21" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B22" s="12">
         <v>0</v>
@@ -2166,7 +2174,7 @@
     </row>
     <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="12">
         <v>0</v>
@@ -2174,7 +2182,7 @@
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="12">
         <v>0</v>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB75B45-8CCB-4E28-A3CB-7F1896EB8537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D36CA-1400-4C27-A842-CD9862A93676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,10 +469,6 @@
   </si>
   <si>
     <t>磁石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁铁矿车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1023,8 +1019,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B26" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B25" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}">
     <filterColumn colId="1">
       <filters>
         <filter val="0%"/>
@@ -1033,8 +1029,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:B25">
-    <sortCondition descending="1" ref="B1:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:B24">
+    <sortCondition descending="1" ref="B1:B24"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99F9146C-A319-4122-823E-EC22537F1C6F}" name="功能" dataDxfId="1"/>
@@ -1976,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2133,7 @@
         <v>107</v>
       </c>
       <c r="B19" s="12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -2185,14 +2181,6 @@
         <v>108</v>
       </c>
       <c r="B25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="12">
         <v>0</v>
       </c>
     </row>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D36CA-1400-4C27-A842-CD9862A93676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E32F2-64F6-400F-860A-EDCFAEC8B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1980" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品介绍" sheetId="1" r:id="rId1"/>
@@ -1025,7 +1025,6 @@
       <filters>
         <filter val="0%"/>
         <filter val="50%"/>
-        <filter val="80%"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1975,7 +1974,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2160,20 +2159,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E32F2-64F6-400F-860A-EDCFAEC8B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9A188B-BA84-4FC2-AA62-B1E11264382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1980" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品介绍" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +473,22 @@
   </si>
   <si>
     <t>磁铁传送按键绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动抢夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁悬浮铁轨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁悬浮矿车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复磁石发包过多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,8 +1035,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B25" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B29" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}">
     <filterColumn colId="1">
       <filters>
         <filter val="0%"/>
@@ -1028,8 +1044,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:B24">
-    <sortCondition descending="1" ref="B1:B24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:B29">
+    <sortCondition descending="1" ref="B1:B29"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99F9146C-A319-4122-823E-EC22537F1C6F}" name="功能" dataDxfId="1"/>
@@ -1971,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2127,17 +2143,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B19" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B20" s="12">
         <v>0.5</v>
@@ -2145,7 +2161,7 @@
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B21" s="12">
         <v>0.5</v>
@@ -2153,10 +2169,10 @@
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B22" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
@@ -2175,11 +2191,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="12">
         <v>0</v>
       </c>
     </row>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9A188B-BA84-4FC2-AA62-B1E11264382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35368B3-09FA-4000-AEFF-3802E45D37A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1980" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品介绍" sheetId="1" r:id="rId1"/>
@@ -1044,7 +1044,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:B29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:B29">
     <sortCondition descending="1" ref="B1:B29"/>
   </sortState>
   <tableColumns count="2">
@@ -1990,7 +1990,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2151,17 +2151,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B20" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B21" s="12">
         <v>0.5</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B22" s="12">
         <v>0.5</v>
@@ -2201,15 +2201,15 @@
     </row>
     <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B26" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B27" s="12">
         <v>0</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" s="12">
         <v>0</v>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35368B3-09FA-4000-AEFF-3802E45D37A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9026547-34E8-478B-A070-322515ECEB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1980" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品介绍" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +489,22 @@
   </si>
   <si>
     <t>修复磁石发包过多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁轨能站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿物磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤快捷键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,8 +1051,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B29" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B33" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}">
     <filterColumn colId="1">
       <filters>
         <filter val="0%"/>
@@ -1987,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2231,6 +2247,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MagnetCraft.xlsx
+++ b/MagnetCraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minecraft\Mods\MagnetCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9026547-34E8-478B-A070-322515ECEB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA969E4-C949-46EC-A1B5-7F050990BFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁铁传送按键绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动抢夺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁悬浮矿车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修复磁石发包过多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,15 +488,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铁轨能站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>矿物磁铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过滤快捷键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农耕磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁开关界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,8 +1047,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B33" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}" name="表11" displayName="表11" ref="A1:B32" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B32" xr:uid="{F2299072-117A-40D5-A6F5-80249E7A2380}">
     <filterColumn colId="1">
       <filters>
         <filter val="0%"/>
@@ -1060,8 +1056,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:B29">
-    <sortCondition descending="1" ref="B1:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:B27">
+    <sortCondition descending="1" ref="B1:B27"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{99F9146C-A319-4122-823E-EC22537F1C6F}" name="功能" dataDxfId="1"/>
@@ -2003,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F8729-F334-4FC1-996B-D3DA3A4F726F}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2157,7 @@
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="12">
         <v>1</v>
@@ -2169,7 +2165,7 @@
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
@@ -2209,18 +2205,18 @@
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="12">
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B26" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -2231,28 +2227,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B30" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -2268,14 +2264,6 @@
         <v>115</v>
       </c>
       <c r="B32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="12">
         <v>0</v>
       </c>
     </row>
